--- a/processed_data/teachers_moodle.xlsx
+++ b/processed_data/teachers_moodle.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DCF013-843E-4331-9709-7438BFC8BE2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B82BE4-7415-4953-844A-F5690BECCBCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="7080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>  </t>
   </si>
   <si>
-    <t>Арпентьєва18ПФ Ольга</t>
-  </si>
-  <si>
     <t>arpentyeva013_18@idguonline.net</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>berestetska_o@idguonline.net</t>
   </si>
   <si>
-    <t>Боцу18ПФ Юліана</t>
-  </si>
-  <si>
     <t>botsu013_18@idguonline.net</t>
   </si>
   <si>
@@ -106,15 +100,9 @@
     <t>vdovenko@idguonline.net</t>
   </si>
   <si>
-    <t>Вдовенко y17 Петро</t>
-  </si>
-  <si>
     <t>vdovenko7y17_@some.email</t>
   </si>
   <si>
-    <t>Войку18ПФ Маріета</t>
-  </si>
-  <si>
     <t>voyko013_18@idguonline.net</t>
   </si>
   <si>
@@ -124,9 +112,6 @@
     <t>vorobyov073_19@idguonline.net</t>
   </si>
   <si>
-    <t>Георгіу 19ФУАІД Сергій</t>
-  </si>
-  <si>
     <t>heorhiu073_19@idguonline.net</t>
   </si>
   <si>
@@ -160,9 +145,6 @@
     <t>deliusto@idguonline.net</t>
   </si>
   <si>
-    <t>Демирова18ПФ Ольга</t>
-  </si>
-  <si>
     <t>demirova013_18@idguonline.net</t>
   </si>
   <si>
@@ -184,21 +166,12 @@
     <t>dzikovskaya86@idguonline.net</t>
   </si>
   <si>
-    <t>Дімітрова 19ФУАІД Анна</t>
-  </si>
-  <si>
     <t>dimitrova014_19@idguonline.net</t>
   </si>
   <si>
-    <t>Довгополик 20ФУАІД Катерина</t>
-  </si>
-  <si>
     <t>dovhopolyk014_20@idguonline.net</t>
   </si>
   <si>
-    <t>Долга 18ФІМ Надія</t>
-  </si>
-  <si>
     <t>dolga014_18@idguonline.net</t>
   </si>
   <si>
@@ -256,9 +229,6 @@
     <t>ivliieva@idguonline.net</t>
   </si>
   <si>
-    <t>Каїш 17ФУАІД Людмила</t>
-  </si>
-  <si>
     <t>kaish014_17@idguonline.net</t>
   </si>
   <si>
@@ -286,9 +256,6 @@
     <t>kozhukhar@idguonline.net</t>
   </si>
   <si>
-    <t>Козуб 18ФІМ Ірина</t>
-  </si>
-  <si>
     <t>kozub014_18@idguonline.net</t>
   </si>
   <si>
@@ -322,21 +289,12 @@
     <t>kulinenko@idguonline.net</t>
   </si>
   <si>
-    <t>Кулінська18ПФ Альбіна</t>
-  </si>
-  <si>
     <t>kulinska013_18@idguonline.net</t>
   </si>
   <si>
-    <t>Кутас 18ФІМ Ганна</t>
-  </si>
-  <si>
     <t>kutas014_18@idguonline.net</t>
   </si>
   <si>
-    <t>Лазар18ПФ Ксенія</t>
-  </si>
-  <si>
     <t>lazar013_18@idguonline.net</t>
   </si>
   <si>
@@ -364,9 +322,6 @@
     <t>metil_t@idguonline.net</t>
   </si>
   <si>
-    <t>Метіль 19ФУАІД Тетяна</t>
-  </si>
-  <si>
     <t>metil073_19@idguonline.net</t>
   </si>
   <si>
@@ -394,15 +349,9 @@
     <t>musorina@idguonline.net</t>
   </si>
   <si>
-    <t>Надельніченко 18ФІМ Катерина</t>
-  </si>
-  <si>
     <t>nadelnichenko014_18@idguonline.net</t>
   </si>
   <si>
-    <t>Носко18ПФ Ольга</t>
-  </si>
-  <si>
     <t>nosko013_18@idguonline.net</t>
   </si>
   <si>
@@ -424,15 +373,9 @@
     <t>petkova013_18@idguonline.net</t>
   </si>
   <si>
-    <t>Пєйчева18ПФ Ганна</t>
-  </si>
-  <si>
     <t>pyeycheva013_18@idguonline.net</t>
   </si>
   <si>
-    <t>Погожев 17ФУАІД Станіслав</t>
-  </si>
-  <si>
     <t>pohozhev014_17@idguonline.net</t>
   </si>
   <si>
@@ -526,9 +469,6 @@
     <t>snadezda723@idguonline.net</t>
   </si>
   <si>
-    <t>Тимофєєв 20ФУАІД Данило</t>
-  </si>
-  <si>
     <t>tymofieiev014_20@idguonline.net</t>
   </si>
   <si>
@@ -550,9 +490,6 @@
     <t>topchii@idguonline.net</t>
   </si>
   <si>
-    <t>Трігуб 17ФУАІД Поліна</t>
-  </si>
-  <si>
     <t>trihub014_17@idguonline.net</t>
   </si>
   <si>
@@ -592,15 +529,9 @@
     <t>chetverikova@idguonline.net</t>
   </si>
   <si>
-    <t>Чєрнова18ПФ Анастасія</t>
-  </si>
-  <si>
     <t>chyernova013_18@idguonline.net</t>
   </si>
   <si>
-    <t>Чіфліклій18ФІМ Дмитро</t>
-  </si>
-  <si>
     <t>chiflikliy014_18@idguonline.net</t>
   </si>
   <si>
@@ -662,6 +593,75 @@
   </si>
   <si>
     <t>emails</t>
+  </si>
+  <si>
+    <t>Арпентьєва Ольга</t>
+  </si>
+  <si>
+    <t>Боцу Юліана</t>
+  </si>
+  <si>
+    <t>Вдовенко Петро</t>
+  </si>
+  <si>
+    <t>Войку Маріета</t>
+  </si>
+  <si>
+    <t>Георгіу Сергій</t>
+  </si>
+  <si>
+    <t>Демирова Ольга</t>
+  </si>
+  <si>
+    <t>Дімітрова Анна</t>
+  </si>
+  <si>
+    <t>Довгополик Катерина</t>
+  </si>
+  <si>
+    <t>Долга Надія</t>
+  </si>
+  <si>
+    <t>Каїш Людмила</t>
+  </si>
+  <si>
+    <t>Козуб Ірина</t>
+  </si>
+  <si>
+    <t>Кулінська Альбіна</t>
+  </si>
+  <si>
+    <t>Кутас Ганна</t>
+  </si>
+  <si>
+    <t>Лазар Ксенія</t>
+  </si>
+  <si>
+    <t>Метіль Тетяна</t>
+  </si>
+  <si>
+    <t>Надельніченко Катерина</t>
+  </si>
+  <si>
+    <t>Носко Ольга</t>
+  </si>
+  <si>
+    <t>Погожев Станіслав</t>
+  </si>
+  <si>
+    <t>Пєйчева Ганна</t>
+  </si>
+  <si>
+    <t>Тимофєєв Данило</t>
+  </si>
+  <si>
+    <t>Трігуб Поліна</t>
+  </si>
+  <si>
+    <t>Чєрнова Анастасія</t>
+  </si>
+  <si>
+    <t>Чіфліклій Дмитро</t>
   </si>
 </sst>
 </file>
@@ -991,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,10 +1004,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
@@ -1034,10 +1034,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -1056,10 +1056,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
@@ -1067,10 +1067,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>2</v>
@@ -1078,10 +1078,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
       </c>
       <c r="F9" t="s">
         <v>2</v>
@@ -1100,10 +1100,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
         <v>2</v>
@@ -1111,10 +1111,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
@@ -1122,10 +1122,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
         <v>2</v>
@@ -1133,10 +1133,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
         <v>2</v>
@@ -1144,10 +1144,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
         <v>2</v>
@@ -1155,10 +1155,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
         <v>2</v>
@@ -1166,10 +1166,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
         <v>2</v>
@@ -1177,10 +1177,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
         <v>2</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
         <v>2</v>
@@ -1199,10 +1199,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
         <v>2</v>
@@ -1210,10 +1210,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
         <v>2</v>
@@ -1221,10 +1221,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
         <v>2</v>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
         <v>2</v>
@@ -1243,10 +1243,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
         <v>2</v>
@@ -1254,10 +1254,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s">
         <v>2</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
         <v>2</v>
@@ -1276,10 +1276,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
         <v>2</v>
@@ -1287,10 +1287,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
         <v>2</v>
@@ -1298,10 +1298,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>196</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F28" t="s">
         <v>2</v>
@@ -1309,10 +1309,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>197</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s">
         <v>2</v>
@@ -1320,10 +1320,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F30" t="s">
         <v>2</v>
@@ -1331,10 +1331,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s">
         <v>2</v>
@@ -1342,10 +1342,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
         <v>2</v>
@@ -1353,10 +1353,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F33" t="s">
         <v>2</v>
@@ -1364,10 +1364,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F34" t="s">
         <v>2</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F35" t="s">
         <v>2</v>
@@ -1386,10 +1386,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F36" t="s">
         <v>2</v>
@@ -1397,10 +1397,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F37" t="s">
         <v>2</v>
@@ -1408,10 +1408,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F38" t="s">
         <v>2</v>
@@ -1419,10 +1419,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F39" t="s">
         <v>2</v>
@@ -1430,10 +1430,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F40" t="s">
         <v>2</v>
@@ -1441,10 +1441,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F41" t="s">
         <v>2</v>
@@ -1452,10 +1452,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F42" t="s">
         <v>2</v>
@@ -1463,10 +1463,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F43" t="s">
         <v>2</v>
@@ -1474,10 +1474,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F44" t="s">
         <v>2</v>
@@ -1485,10 +1485,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F45" t="s">
         <v>2</v>
@@ -1496,10 +1496,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s">
         <v>2</v>
@@ -1507,10 +1507,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
         <v>2</v>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F48" t="s">
         <v>2</v>
@@ -1529,10 +1529,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F49" t="s">
         <v>2</v>
@@ -1540,10 +1540,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F50" t="s">
         <v>2</v>
@@ -1551,10 +1551,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F51" t="s">
         <v>2</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F52" t="s">
         <v>2</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F53" t="s">
         <v>2</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F54" t="s">
         <v>2</v>
@@ -1595,10 +1595,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F55" t="s">
         <v>2</v>
@@ -1606,10 +1606,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F56" t="s">
         <v>2</v>
@@ -1617,10 +1617,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F57" t="s">
         <v>2</v>
@@ -1628,10 +1628,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F58" t="s">
         <v>2</v>
@@ -1639,10 +1639,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F59" t="s">
         <v>2</v>
@@ -1650,10 +1650,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F60" t="s">
         <v>2</v>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F61" t="s">
         <v>2</v>
@@ -1672,10 +1672,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F62" t="s">
         <v>2</v>
@@ -1683,10 +1683,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F63" t="s">
         <v>2</v>
@@ -1694,10 +1694,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="B64" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="F64" t="s">
         <v>2</v>
@@ -1705,10 +1705,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="F65" t="s">
         <v>2</v>
@@ -1716,10 +1716,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B66" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F66" t="s">
         <v>2</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="F67" t="s">
         <v>2</v>
@@ -1738,10 +1738,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="F68" t="s">
         <v>2</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F69" t="s">
         <v>2</v>
@@ -1760,10 +1760,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="F70" t="s">
         <v>2</v>
@@ -1771,18 +1771,18 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="F72" t="s">
         <v>2</v>
@@ -1790,10 +1790,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="F73" t="s">
         <v>2</v>
@@ -1801,10 +1801,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B74" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="F74" t="s">
         <v>2</v>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="B75" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="F75" t="s">
         <v>2</v>
@@ -1823,10 +1823,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B76" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="F76" t="s">
         <v>2</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="B77" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="F77" t="s">
         <v>2</v>
@@ -1845,10 +1845,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F78" t="s">
         <v>2</v>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="F79" t="s">
         <v>2</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B80" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F80" t="s">
         <v>2</v>
@@ -1878,10 +1878,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="F81" t="s">
         <v>2</v>
@@ -1889,10 +1889,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="F82" t="s">
         <v>2</v>
@@ -1900,10 +1900,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B83" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="F83" t="s">
         <v>2</v>
@@ -1911,10 +1911,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B84" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="F84" t="s">
         <v>2</v>
@@ -1922,10 +1922,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="B85" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="F85" t="s">
         <v>2</v>
@@ -1933,10 +1933,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B86" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F86" t="s">
         <v>2</v>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B87" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="F87" t="s">
         <v>2</v>
@@ -1955,10 +1955,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="B88" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="F88" t="s">
         <v>2</v>
@@ -1966,10 +1966,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="B89" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="F89" t="s">
         <v>2</v>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="B90" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="F90" t="s">
         <v>2</v>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="B91" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="F91" t="s">
         <v>2</v>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B92" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="F92" t="s">
         <v>2</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="B93" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="F93" t="s">
         <v>2</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="B94" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="F94" t="s">
         <v>2</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="B95" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="F95" t="s">
         <v>2</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="B96" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="F96" t="s">
         <v>2</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="B97" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="F97" t="s">
         <v>2</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="B98" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="F98" t="s">
         <v>2</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B99" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="F99" t="s">
         <v>2</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="B100" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="F100" t="s">
         <v>2</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="B101" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="F101" t="s">
         <v>2</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="B102" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="F102" t="s">
         <v>2</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="B103" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="F103" t="s">
         <v>2</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="B104" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="F104" t="s">
         <v>2</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="B105" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="F105" t="s">
         <v>2</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="B106" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="F106" t="s">
         <v>2</v>
